--- a/番剧数据-原始数据【其它国家动画-2021-2023】.xlsx
+++ b/番剧数据-原始数据【其它国家动画-2021-2023】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,14 +383,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,133 +878,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,8 +1012,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1339,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1419,7 +1412,9 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>2023</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1456,7 +1451,9 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>2023</v>
+      </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1493,7 +1490,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>2023</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1530,7 +1529,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>2023</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1567,7 +1568,9 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>2023</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1646,7 +1649,9 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1686,7 +1691,9 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1726,7 +1733,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1766,7 +1775,9 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -1806,7 +1817,9 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1846,7 +1859,9 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>2022</v>
+      </c>
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -1886,7 +1901,9 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2022</v>
+      </c>
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -1926,7 +1943,9 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3">
+        <v>2022</v>
+      </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -1966,7 +1985,9 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>2022</v>
+      </c>
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -2006,7 +2027,9 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>2022</v>
+      </c>
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -2046,7 +2069,9 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2022</v>
+      </c>
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -2086,7 +2111,9 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>2022</v>
+      </c>
       <c r="B20" s="2">
         <v>12</v>
       </c>
@@ -2126,7 +2153,9 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2022</v>
+      </c>
       <c r="B21" s="2">
         <v>13</v>
       </c>
@@ -2166,7 +2195,9 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>2022</v>
+      </c>
       <c r="B22" s="2">
         <v>14</v>
       </c>
@@ -2206,7 +2237,9 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>2022</v>
+      </c>
       <c r="B23" s="2">
         <v>15</v>
       </c>
@@ -2246,7 +2279,9 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>2022</v>
+      </c>
       <c r="B24" s="2">
         <v>16</v>
       </c>
@@ -2286,7 +2321,9 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>2022</v>
+      </c>
       <c r="B25" s="2">
         <v>17</v>
       </c>
@@ -2326,7 +2363,9 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>2022</v>
+      </c>
       <c r="B26" s="2">
         <v>18</v>
       </c>
@@ -2366,7 +2405,9 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>2022</v>
+      </c>
       <c r="B27" s="2">
         <v>19</v>
       </c>
@@ -2406,7 +2447,9 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>2022</v>
+      </c>
       <c r="B28" s="2">
         <v>20</v>
       </c>
@@ -2446,7 +2489,9 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>2022</v>
+      </c>
       <c r="B29" s="2">
         <v>21</v>
       </c>
@@ -2486,7 +2531,9 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>2022</v>
+      </c>
       <c r="B30" s="2">
         <v>22</v>
       </c>
@@ -2526,7 +2573,9 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>2022</v>
+      </c>
       <c r="B31" s="2">
         <v>23</v>
       </c>
@@ -2566,7 +2615,9 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>2022</v>
+      </c>
       <c r="B32" s="2">
         <v>24</v>
       </c>
@@ -2606,7 +2657,9 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>2022</v>
+      </c>
       <c r="B33" s="2">
         <v>25</v>
       </c>
@@ -2688,7 +2741,9 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>2021</v>
+      </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -2725,7 +2780,9 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>2021</v>
+      </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -2762,7 +2819,9 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>2021</v>
+      </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
@@ -2799,7 +2858,9 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>2021</v>
+      </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
@@ -2836,7 +2897,9 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>2021</v>
+      </c>
       <c r="B39" s="2">
         <v>5</v>
       </c>
@@ -2873,7 +2936,9 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>2021</v>
+      </c>
       <c r="B40" s="2">
         <v>6</v>
       </c>
@@ -2910,7 +2975,9 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>2021</v>
+      </c>
       <c r="B41" s="2">
         <v>7</v>
       </c>
@@ -2947,7 +3014,9 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>2021</v>
+      </c>
       <c r="B42" s="2">
         <v>8</v>
       </c>
@@ -2984,7 +3053,9 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>2021</v>
+      </c>
       <c r="B43" s="2">
         <v>9</v>
       </c>
@@ -3021,7 +3092,9 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>2021</v>
+      </c>
       <c r="B44" s="2">
         <v>10</v>
       </c>
@@ -3058,7 +3131,9 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>2021</v>
+      </c>
       <c r="B45" s="2">
         <v>11</v>
       </c>
@@ -3095,7 +3170,9 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>2021</v>
+      </c>
       <c r="B46" s="2">
         <v>12</v>
       </c>
@@ -3132,7 +3209,9 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>2021</v>
+      </c>
       <c r="B47" s="2">
         <v>13</v>
       </c>
@@ -3217,11 +3296,6 @@
       <c r="O50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A33"/>
-    <mergeCell ref="A34:A47"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
